--- a/po_analysis_by_asin/B0CG2QBHCP_po_data.xlsx
+++ b/po_analysis_by_asin/B0CG2QBHCP_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,23 +452,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45313</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -476,225 +476,273 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45362</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45369</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45404</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45411</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>102</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45418</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45432</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45439</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45509</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>78</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45516</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45530</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45537</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45551</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45558</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45572</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45579</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45586</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45593</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45600</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45607</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45614</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45621</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45628</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45635</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B38" t="n">
         <v>40</v>
       </c>
     </row>
@@ -709,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,81 +779,105 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>81</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>45</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>96</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45536</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45597</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45627</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B14" t="n">
         <v>68</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CG2QBHCP_po_data.xlsx
+++ b/po_analysis_by_asin/B0CG2QBHCP_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -773,7 +774,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -879,6 +880,677 @@
       </c>
       <c r="B14" t="n">
         <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-18.52974402814541</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64.05857858370943</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-17.0624433464677</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61.51253670614904</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-17.29829642463121</v>
+      </c>
+      <c r="D4" t="n">
+        <v>66.24270436454208</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-18.38585016383175</v>
+      </c>
+      <c r="D5" t="n">
+        <v>62.31256070168083</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-16.86899270789769</v>
+      </c>
+      <c r="D6" t="n">
+        <v>66.7599329940746</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>23</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-16.85410279866685</v>
+      </c>
+      <c r="D7" t="n">
+        <v>66.55464358019586</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>23</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-18.7825430914603</v>
+      </c>
+      <c r="D8" t="n">
+        <v>65.75632400690988</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>24</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-18.26646437591452</v>
+      </c>
+      <c r="D9" t="n">
+        <v>63.98425490549199</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-17.06335660634159</v>
+      </c>
+      <c r="D10" t="n">
+        <v>63.5276773473262</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>24</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-19.6495681130787</v>
+      </c>
+      <c r="D11" t="n">
+        <v>64.30944647050447</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>24</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-16.90354989162013</v>
+      </c>
+      <c r="D12" t="n">
+        <v>65.15783471109923</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>24</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-16.4725983532117</v>
+      </c>
+      <c r="D13" t="n">
+        <v>65.42990749343181</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>24</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-15.70251757121314</v>
+      </c>
+      <c r="D14" t="n">
+        <v>65.74697868901647</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-12.18692881790845</v>
+      </c>
+      <c r="D15" t="n">
+        <v>64.90252912732456</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>24</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-20.78293438779249</v>
+      </c>
+      <c r="D16" t="n">
+        <v>63.86820825548789</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>24</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-18.59802344109837</v>
+      </c>
+      <c r="D17" t="n">
+        <v>62.05104717237122</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>24</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-16.849055511509</v>
+      </c>
+      <c r="D18" t="n">
+        <v>66.5457943700234</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>24</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-17.22037182636603</v>
+      </c>
+      <c r="D19" t="n">
+        <v>66.40066505643563</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>24</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-16.20172195055751</v>
+      </c>
+      <c r="D20" t="n">
+        <v>67.18324854661735</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>24</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-18.03679687244118</v>
+      </c>
+      <c r="D21" t="n">
+        <v>62.91136057935725</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>24</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-15.84012486811555</v>
+      </c>
+      <c r="D22" t="n">
+        <v>61.99013993032371</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>25</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-15.05817769481522</v>
+      </c>
+      <c r="D23" t="n">
+        <v>65.0105218699664</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>25</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-14.19225276290955</v>
+      </c>
+      <c r="D24" t="n">
+        <v>64.29088629198861</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>25</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-15.24433244442476</v>
+      </c>
+      <c r="D25" t="n">
+        <v>65.48390213461551</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-14.83883588828091</v>
+      </c>
+      <c r="D26" t="n">
+        <v>60.12598780554303</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-16.32181881479075</v>
+      </c>
+      <c r="D27" t="n">
+        <v>66.90932210573321</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-19.30969250477439</v>
+      </c>
+      <c r="D28" t="n">
+        <v>64.87623654467902</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>25</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-14.23712313274605</v>
+      </c>
+      <c r="D29" t="n">
+        <v>66.83316783239889</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>25</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-16.04739533331695</v>
+      </c>
+      <c r="D30" t="n">
+        <v>65.31917125126057</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>25</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-15.07245908288202</v>
+      </c>
+      <c r="D31" t="n">
+        <v>64.94708621970206</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>25</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-16.05483135034347</v>
+      </c>
+      <c r="D32" t="n">
+        <v>64.48507928765889</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>25</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-14.970657724795</v>
+      </c>
+      <c r="D33" t="n">
+        <v>68.90952998207514</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>25</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-13.81684398988979</v>
+      </c>
+      <c r="D34" t="n">
+        <v>65.15711520070462</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>25</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-14.45742597512262</v>
+      </c>
+      <c r="D35" t="n">
+        <v>66.27765068853255</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>25</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-16.47184180299771</v>
+      </c>
+      <c r="D36" t="n">
+        <v>62.65227906367382</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>25</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-17.45730058343292</v>
+      </c>
+      <c r="D37" t="n">
+        <v>63.45421303427214</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>25</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-14.64445523199103</v>
+      </c>
+      <c r="D38" t="n">
+        <v>65.7076484358786</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>25</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-16.03203287054095</v>
+      </c>
+      <c r="D39" t="n">
+        <v>67.12440826009228</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>25</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-19.38771768242889</v>
+      </c>
+      <c r="D40" t="n">
+        <v>66.27624628844353</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>25</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-13.4183635145329</v>
+      </c>
+      <c r="D41" t="n">
+        <v>62.35471349545814</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>25</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-12.29905766149143</v>
+      </c>
+      <c r="D42" t="n">
+        <v>63.92959044933119</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>25</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-14.64919378538262</v>
+      </c>
+      <c r="D43" t="n">
+        <v>66.33912232621901</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>25</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-13.47659214107084</v>
+      </c>
+      <c r="D44" t="n">
+        <v>63.39000003963893</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>25</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-14.16153437036525</v>
+      </c>
+      <c r="D45" t="n">
+        <v>66.28540286811558</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>26</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-15.75191973107698</v>
+      </c>
+      <c r="D46" t="n">
+        <v>67.77106326429301</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CG2QBHCP_po_data.xlsx
+++ b/po_analysis_by_asin/B0CG2QBHCP_po_data.xlsx
@@ -893,7 +893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,16 +912,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -930,12 +920,6 @@
       <c r="B2" t="n">
         <v>23</v>
       </c>
-      <c r="C2" t="n">
-        <v>-18.52974402814541</v>
-      </c>
-      <c r="D2" t="n">
-        <v>64.05857858370943</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -944,12 +928,6 @@
       <c r="B3" t="n">
         <v>23</v>
       </c>
-      <c r="C3" t="n">
-        <v>-17.0624433464677</v>
-      </c>
-      <c r="D3" t="n">
-        <v>61.51253670614904</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -958,12 +936,6 @@
       <c r="B4" t="n">
         <v>23</v>
       </c>
-      <c r="C4" t="n">
-        <v>-17.29829642463121</v>
-      </c>
-      <c r="D4" t="n">
-        <v>66.24270436454208</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -972,12 +944,6 @@
       <c r="B5" t="n">
         <v>23</v>
       </c>
-      <c r="C5" t="n">
-        <v>-18.38585016383175</v>
-      </c>
-      <c r="D5" t="n">
-        <v>62.31256070168083</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -986,12 +952,6 @@
       <c r="B6" t="n">
         <v>23</v>
       </c>
-      <c r="C6" t="n">
-        <v>-16.86899270789769</v>
-      </c>
-      <c r="D6" t="n">
-        <v>66.7599329940746</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1000,12 +960,6 @@
       <c r="B7" t="n">
         <v>23</v>
       </c>
-      <c r="C7" t="n">
-        <v>-16.85410279866685</v>
-      </c>
-      <c r="D7" t="n">
-        <v>66.55464358019586</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1014,12 +968,6 @@
       <c r="B8" t="n">
         <v>23</v>
       </c>
-      <c r="C8" t="n">
-        <v>-18.7825430914603</v>
-      </c>
-      <c r="D8" t="n">
-        <v>65.75632400690988</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1028,12 +976,6 @@
       <c r="B9" t="n">
         <v>24</v>
       </c>
-      <c r="C9" t="n">
-        <v>-18.26646437591452</v>
-      </c>
-      <c r="D9" t="n">
-        <v>63.98425490549199</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1042,12 +984,6 @@
       <c r="B10" t="n">
         <v>24</v>
       </c>
-      <c r="C10" t="n">
-        <v>-17.06335660634159</v>
-      </c>
-      <c r="D10" t="n">
-        <v>63.5276773473262</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1056,12 +992,6 @@
       <c r="B11" t="n">
         <v>24</v>
       </c>
-      <c r="C11" t="n">
-        <v>-19.6495681130787</v>
-      </c>
-      <c r="D11" t="n">
-        <v>64.30944647050447</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1070,12 +1000,6 @@
       <c r="B12" t="n">
         <v>24</v>
       </c>
-      <c r="C12" t="n">
-        <v>-16.90354989162013</v>
-      </c>
-      <c r="D12" t="n">
-        <v>65.15783471109923</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1084,12 +1008,6 @@
       <c r="B13" t="n">
         <v>24</v>
       </c>
-      <c r="C13" t="n">
-        <v>-16.4725983532117</v>
-      </c>
-      <c r="D13" t="n">
-        <v>65.42990749343181</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1098,12 +1016,6 @@
       <c r="B14" t="n">
         <v>24</v>
       </c>
-      <c r="C14" t="n">
-        <v>-15.70251757121314</v>
-      </c>
-      <c r="D14" t="n">
-        <v>65.74697868901647</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1112,12 +1024,6 @@
       <c r="B15" t="n">
         <v>24</v>
       </c>
-      <c r="C15" t="n">
-        <v>-12.18692881790845</v>
-      </c>
-      <c r="D15" t="n">
-        <v>64.90252912732456</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1126,12 +1032,6 @@
       <c r="B16" t="n">
         <v>24</v>
       </c>
-      <c r="C16" t="n">
-        <v>-20.78293438779249</v>
-      </c>
-      <c r="D16" t="n">
-        <v>63.86820825548789</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1140,12 +1040,6 @@
       <c r="B17" t="n">
         <v>24</v>
       </c>
-      <c r="C17" t="n">
-        <v>-18.59802344109837</v>
-      </c>
-      <c r="D17" t="n">
-        <v>62.05104717237122</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1154,12 +1048,6 @@
       <c r="B18" t="n">
         <v>24</v>
       </c>
-      <c r="C18" t="n">
-        <v>-16.849055511509</v>
-      </c>
-      <c r="D18" t="n">
-        <v>66.5457943700234</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1168,12 +1056,6 @@
       <c r="B19" t="n">
         <v>24</v>
       </c>
-      <c r="C19" t="n">
-        <v>-17.22037182636603</v>
-      </c>
-      <c r="D19" t="n">
-        <v>66.40066505643563</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1182,12 +1064,6 @@
       <c r="B20" t="n">
         <v>24</v>
       </c>
-      <c r="C20" t="n">
-        <v>-16.20172195055751</v>
-      </c>
-      <c r="D20" t="n">
-        <v>67.18324854661735</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1196,12 +1072,6 @@
       <c r="B21" t="n">
         <v>24</v>
       </c>
-      <c r="C21" t="n">
-        <v>-18.03679687244118</v>
-      </c>
-      <c r="D21" t="n">
-        <v>62.91136057935725</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1210,12 +1080,6 @@
       <c r="B22" t="n">
         <v>24</v>
       </c>
-      <c r="C22" t="n">
-        <v>-15.84012486811555</v>
-      </c>
-      <c r="D22" t="n">
-        <v>61.99013993032371</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1224,12 +1088,6 @@
       <c r="B23" t="n">
         <v>25</v>
       </c>
-      <c r="C23" t="n">
-        <v>-15.05817769481522</v>
-      </c>
-      <c r="D23" t="n">
-        <v>65.0105218699664</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1238,12 +1096,6 @@
       <c r="B24" t="n">
         <v>25</v>
       </c>
-      <c r="C24" t="n">
-        <v>-14.19225276290955</v>
-      </c>
-      <c r="D24" t="n">
-        <v>64.29088629198861</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1252,12 +1104,6 @@
       <c r="B25" t="n">
         <v>25</v>
       </c>
-      <c r="C25" t="n">
-        <v>-15.24433244442476</v>
-      </c>
-      <c r="D25" t="n">
-        <v>65.48390213461551</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1266,12 +1112,6 @@
       <c r="B26" t="n">
         <v>25</v>
       </c>
-      <c r="C26" t="n">
-        <v>-14.83883588828091</v>
-      </c>
-      <c r="D26" t="n">
-        <v>60.12598780554303</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1280,12 +1120,6 @@
       <c r="B27" t="n">
         <v>25</v>
       </c>
-      <c r="C27" t="n">
-        <v>-16.32181881479075</v>
-      </c>
-      <c r="D27" t="n">
-        <v>66.90932210573321</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1294,12 +1128,6 @@
       <c r="B28" t="n">
         <v>25</v>
       </c>
-      <c r="C28" t="n">
-        <v>-19.30969250477439</v>
-      </c>
-      <c r="D28" t="n">
-        <v>64.87623654467902</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1308,12 +1136,6 @@
       <c r="B29" t="n">
         <v>25</v>
       </c>
-      <c r="C29" t="n">
-        <v>-14.23712313274605</v>
-      </c>
-      <c r="D29" t="n">
-        <v>66.83316783239889</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1322,12 +1144,6 @@
       <c r="B30" t="n">
         <v>25</v>
       </c>
-      <c r="C30" t="n">
-        <v>-16.04739533331695</v>
-      </c>
-      <c r="D30" t="n">
-        <v>65.31917125126057</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1336,12 +1152,6 @@
       <c r="B31" t="n">
         <v>25</v>
       </c>
-      <c r="C31" t="n">
-        <v>-15.07245908288202</v>
-      </c>
-      <c r="D31" t="n">
-        <v>64.94708621970206</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1350,12 +1160,6 @@
       <c r="B32" t="n">
         <v>25</v>
       </c>
-      <c r="C32" t="n">
-        <v>-16.05483135034347</v>
-      </c>
-      <c r="D32" t="n">
-        <v>64.48507928765889</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1364,12 +1168,6 @@
       <c r="B33" t="n">
         <v>25</v>
       </c>
-      <c r="C33" t="n">
-        <v>-14.970657724795</v>
-      </c>
-      <c r="D33" t="n">
-        <v>68.90952998207514</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1378,12 +1176,6 @@
       <c r="B34" t="n">
         <v>25</v>
       </c>
-      <c r="C34" t="n">
-        <v>-13.81684398988979</v>
-      </c>
-      <c r="D34" t="n">
-        <v>65.15711520070462</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1392,12 +1184,6 @@
       <c r="B35" t="n">
         <v>25</v>
       </c>
-      <c r="C35" t="n">
-        <v>-14.45742597512262</v>
-      </c>
-      <c r="D35" t="n">
-        <v>66.27765068853255</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1406,12 +1192,6 @@
       <c r="B36" t="n">
         <v>25</v>
       </c>
-      <c r="C36" t="n">
-        <v>-16.47184180299771</v>
-      </c>
-      <c r="D36" t="n">
-        <v>62.65227906367382</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1420,12 +1200,6 @@
       <c r="B37" t="n">
         <v>25</v>
       </c>
-      <c r="C37" t="n">
-        <v>-17.45730058343292</v>
-      </c>
-      <c r="D37" t="n">
-        <v>63.45421303427214</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1434,12 +1208,6 @@
       <c r="B38" t="n">
         <v>25</v>
       </c>
-      <c r="C38" t="n">
-        <v>-14.64445523199103</v>
-      </c>
-      <c r="D38" t="n">
-        <v>65.7076484358786</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1448,12 +1216,6 @@
       <c r="B39" t="n">
         <v>25</v>
       </c>
-      <c r="C39" t="n">
-        <v>-16.03203287054095</v>
-      </c>
-      <c r="D39" t="n">
-        <v>67.12440826009228</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1462,12 +1224,6 @@
       <c r="B40" t="n">
         <v>25</v>
       </c>
-      <c r="C40" t="n">
-        <v>-19.38771768242889</v>
-      </c>
-      <c r="D40" t="n">
-        <v>66.27624628844353</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1476,12 +1232,6 @@
       <c r="B41" t="n">
         <v>25</v>
       </c>
-      <c r="C41" t="n">
-        <v>-13.4183635145329</v>
-      </c>
-      <c r="D41" t="n">
-        <v>62.35471349545814</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1490,12 +1240,6 @@
       <c r="B42" t="n">
         <v>25</v>
       </c>
-      <c r="C42" t="n">
-        <v>-12.29905766149143</v>
-      </c>
-      <c r="D42" t="n">
-        <v>63.92959044933119</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1504,12 +1248,6 @@
       <c r="B43" t="n">
         <v>25</v>
       </c>
-      <c r="C43" t="n">
-        <v>-14.64919378538262</v>
-      </c>
-      <c r="D43" t="n">
-        <v>66.33912232621901</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1518,12 +1256,6 @@
       <c r="B44" t="n">
         <v>25</v>
       </c>
-      <c r="C44" t="n">
-        <v>-13.47659214107084</v>
-      </c>
-      <c r="D44" t="n">
-        <v>63.39000003963893</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1532,12 +1264,6 @@
       <c r="B45" t="n">
         <v>25</v>
       </c>
-      <c r="C45" t="n">
-        <v>-14.16153437036525</v>
-      </c>
-      <c r="D45" t="n">
-        <v>66.28540286811558</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1545,12 +1271,6 @@
       </c>
       <c r="B46" t="n">
         <v>26</v>
-      </c>
-      <c r="C46" t="n">
-        <v>-15.75191973107698</v>
-      </c>
-      <c r="D46" t="n">
-        <v>67.77106326429301</v>
       </c>
     </row>
   </sheetData>
